--- a/Processes/Sales/Calculations/BCG Matrix.xlsx
+++ b/Processes/Sales/Calculations/BCG Matrix.xlsx
@@ -1,43 +1,416 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="28565" windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Market Share</t>
+  </si>
+  <si>
+    <t>Market share of largest competitor</t>
+  </si>
+  <si>
+    <t>Relative market share</t>
+  </si>
+  <si>
+    <t>Market Growths</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,27 +418,1769 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="47"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>BCG Matrix</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.464285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.13157894736842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$B$3:$B$7</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>P1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>P2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>P3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>P4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>P5</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:sizeRepresents val="area"/>
+        <c:axId val="295059926"/>
+        <c:axId val="962677361"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="295059926"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Relative market share</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="962677361"/>
+        <c:crossesAt val="0.3"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="962677361"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="-0.3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:t>Market Growth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="295059926"/>
+        <c:crossesAt val="0.7"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>991870</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>163195</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="237490" y="1844040"/>
+        <a:ext cx="5943600" cy="3439795"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>397510</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>648335</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="614680" y="2152650"/>
+          <a:ext cx="1245235" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Question Marks</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="661670" y="4611370"/>
+          <a:ext cx="902970" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Poor Dogs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5234940" y="4601210"/>
+          <a:ext cx="708660" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Stars</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.85042735042735</cdr:x>
+      <cdr:y>0.088609931696511</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.96965811965812</cdr:x>
+      <cdr:y>0.188296104855086</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Text Box 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5054600" y="304800"/>
+          <a:ext cx="708660" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Stars</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -111,7 +2226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -146,7 +2261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -320,23 +2435,149 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.4285714285714" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="2.71428571428571" customWidth="1"/>
+    <col min="2" max="16384" width="12.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="43.2" spans="3:7">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.28</v>
+      </c>
+      <c r="E3" s="3">
+        <f>+C3/D3</f>
+        <v>0.464285714285714</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E4" s="3">
+        <f>+C4/D4</f>
+        <v>1.1875</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="E5" s="3">
+        <f>+C5/D5</f>
+        <v>1.13157894736842</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="E6" s="3">
+        <f>+C6/D6</f>
+        <v>0.444444444444444</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="3">
+        <f>+C7/D7</f>
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G7">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Processes/Sales/Calculations/BCG Matrix.xlsx
+++ b/Processes/Sales/Calculations/BCG Matrix.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eichhornd\Desktop\Projekte\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01184A92-E213-4354-9949-5715E4745244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28565" windowHeight="16200"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BCG" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,14 +68,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,155 +81,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,192 +101,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -418,324 +114,42 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="47"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -766,12 +180,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="de-DE"/>
               <a:t>BCG Matrix</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -780,6 +194,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr defTabSz="914400">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -804,7 +238,20 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{28BF8FB2-FCD2-4414-A057-2BC48DE3CD44}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -814,16 +261,30 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-4540-4294-9881-B85A11494B35}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F8A547D8-C828-44B6-B4DD-7F0518160A4C}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -833,16 +294,31 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-4540-4294-9881-B85A11494B35}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E891D8D6-C130-45A8-94A0-8071BAA30B97}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -852,16 +328,31 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-4540-4294-9881-B85A11494B35}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CF4718C9-2541-4758-A6D1-2FBD134B97D1}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -871,16 +362,31 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4540-4294-9881-B85A11494B35}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{222F34FB-81D0-4E92-A0BF-269317BA3CBD}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-DE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
@@ -890,10 +396,12 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4540-4294-9881-B85A11494B35}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -921,6 +429,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -933,7 +442,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -955,21 +463,21 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$7</c:f>
+              <c:f>BCG!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.464285714285714</c:v>
+                  <c:v>0.46428571428571425</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.1875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.13157894736842</c:v>
+                  <c:v>1.131578947368421</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.444444444444444</c:v>
+                  <c:v>0.44444444444444448</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.4</c:v>
@@ -979,7 +487,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:f>BCG!$F$3:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1003,7 +511,7 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$7</c:f>
+              <c:f>BCG!$G$3:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1029,7 +537,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Sheet1!$B$3:$B$7</c15:f>
+                <c15:f>BCG!$B$3:$B$7</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
@@ -1050,6 +558,9 @@
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
             </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4540-4294-9881-B85A11494B35}"/>
+            </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
@@ -1062,7 +573,6 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:sizeRepresents val="area"/>
         <c:axId val="295059926"/>
         <c:axId val="962677361"/>
       </c:bubbleChart>
@@ -1093,12 +603,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="de-DE"/>
                   <a:t>Relative market share</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1107,6 +617,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1142,6 +672,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="962677361"/>
@@ -1177,12 +708,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="de-DE"/>
                   <a:t>Market Growth</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1191,6 +722,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr defTabSz="914400">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1226,6 +777,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="295059926"/>
@@ -1266,6 +818,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1273,7 +826,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1853,7 +1406,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1867,14 +1420,20 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>163195</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="237490" y="1844040"/>
-        <a:ext cx="5943600" cy="3439795"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1897,9 +1456,15 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 2"/>
+        <xdr:cNvPr id="3" name="Text Box 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1913,12 +1478,12 @@
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t>Question Marks</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1937,9 +1502,15 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>16510</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Text Box 3"/>
+        <xdr:cNvPr id="4" name="Text Box 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2026,7 +1597,6 @@
             <a:rPr lang="en-US"/>
             <a:t>Poor Dogs</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2045,9 +1615,15 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 4"/>
+        <xdr:cNvPr id="5" name="Text Box 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2134,7 +1710,6 @@
             <a:rPr lang="en-US"/>
             <a:t>Stars</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2147,19 +1722,19 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.85042735042735</cdr:x>
-      <cdr:y>0.088609931696511</cdr:y>
+      <cdr:x>0.85043</cdr:x>
+      <cdr:y>0.08861</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.96965811965812</cdr:x>
-      <cdr:y>0.188296104855086</cdr:y>
+      <cdr:x>0.96966</cdr:x>
+      <cdr:y>0.1883</cdr:y>
     </cdr:to>
-    <cdr:sp>
+    <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="Text Box 2"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
-      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="5054600" y="304800"/>
           <a:ext cx="708660" cy="342900"/>
@@ -2168,14 +1743,14 @@
           <a:avLst/>
         </a:prstGeom>
       </cdr:spPr>
-      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:p>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US"/>
             <a:t>Stars</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -2435,38 +2010,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4285714285714" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="2.71428571428571" customWidth="1"/>
-    <col min="2" max="16384" width="12.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="43.2" spans="3:7">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:7" ht="34.5">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2474,17 +2047,17 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0.13</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.28</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E3" s="2">
         <f>+C3/D3</f>
-        <v>0.464285714285714</v>
-      </c>
-      <c r="F3" s="2">
+        <v>0.46428571428571425</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.03</v>
       </c>
       <c r="G3">
@@ -2495,17 +2068,17 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.19</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.16</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f>+C4/D4</f>
         <v>1.1875</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.05</v>
       </c>
       <c r="G4">
@@ -2516,17 +2089,17 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0.43</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.38</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f>+C5/D5</f>
-        <v>1.13157894736842</v>
-      </c>
-      <c r="F5" s="2">
+        <v>1.131578947368421</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.6</v>
       </c>
       <c r="G5">
@@ -2537,17 +2110,17 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>0.08</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>0.18</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f>+C6/D6</f>
-        <v>0.444444444444444</v>
-      </c>
-      <c r="F6" s="2">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.8</v>
       </c>
       <c r="G6">
@@ -2558,17 +2131,17 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0.1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.25</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f>+C7/D7</f>
         <v>0.4</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.2</v>
       </c>
       <c r="G7">
@@ -2577,7 +2150,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>